--- a/ROOT/tmpfiles/Order_Arivuproduct-list.xlsx
+++ b/ROOT/tmpfiles/Order_Arivuproduct-list.xlsx
@@ -1235,7 +1235,7 @@
         <v>75</v>
       </c>
       <c r="E6" s="14" t="n">
-        <v>0.5</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1252,7 +1252,7 @@
         <v>28</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1268,7 +1268,9 @@
       <c r="D8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="16" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
@@ -1331,7 +1333,7 @@
         <v>55</v>
       </c>
       <c r="E12" s="20" t="n">
-        <v>0.25</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1348,7 +1350,7 @@
         <v>44</v>
       </c>
       <c r="E13" s="21" t="n">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1364,7 +1366,9 @@
       <c r="D14" s="2">
         <v>37</v>
       </c>
-      <c r="E14" s="22"/>
+      <c r="E14" s="22" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
@@ -1379,9 +1383,7 @@
       <c r="D15" s="6">
         <v>68</v>
       </c>
-      <c r="E15" s="23" t="n">
-        <v>0.75</v>
-      </c>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
@@ -1396,7 +1398,9 @@
       <c r="D16" s="2">
         <v>80</v>
       </c>
-      <c r="E16" s="24"/>
+      <c r="E16" s="24" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
@@ -1412,7 +1416,7 @@
         <v>45</v>
       </c>
       <c r="E17" s="25" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1429,7 +1433,7 @@
         <v>46</v>
       </c>
       <c r="E18" s="26" t="n">
-        <v>1.5</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1446,7 +1450,7 @@
         <v>35</v>
       </c>
       <c r="E19" s="27" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1463,7 +1467,7 @@
         <v>24</v>
       </c>
       <c r="E20" s="28" t="n">
-        <v>2.5</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1480,7 +1484,7 @@
         <v>28</v>
       </c>
       <c r="E21" s="29" t="n">
-        <v>0.25</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1497,7 +1501,7 @@
         <v>22</v>
       </c>
       <c r="E22" s="30" t="n">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1514,7 +1518,7 @@
         <v>28</v>
       </c>
       <c r="E23" s="31" t="n">
-        <v>1.0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1531,7 +1535,7 @@
         <v>54</v>
       </c>
       <c r="E24" s="32" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1548,7 +1552,7 @@
         <v>54</v>
       </c>
       <c r="E25" s="33" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1565,7 +1569,7 @@
         <v>49</v>
       </c>
       <c r="E26" s="34" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1596,9 +1600,7 @@
       <c r="D28" s="2">
         <v>35</v>
       </c>
-      <c r="E28" s="36" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="E28" s="36"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
@@ -1613,7 +1615,9 @@
       <c r="D29" s="2">
         <v>36</v>
       </c>
-      <c r="E29" s="37"/>
+      <c r="E29" s="37" t="n">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
@@ -1629,7 +1633,7 @@
         <v>26</v>
       </c>
       <c r="E30" s="38" t="n">
-        <v>2.75</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1646,7 +1650,7 @@
         <v>38</v>
       </c>
       <c r="E31" s="39" t="n">
-        <v>2.5</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1663,7 +1667,7 @@
         <v>30</v>
       </c>
       <c r="E32" s="40" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1680,7 +1684,7 @@
         <v>38</v>
       </c>
       <c r="E33" s="41" t="n">
-        <v>0.4</v>
+        <v>2.8000002</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1697,7 +1701,7 @@
         <v>30</v>
       </c>
       <c r="E34" s="42" t="n">
-        <v>1.35</v>
+        <v>3.6999998</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1714,7 +1718,7 @@
         <v>85</v>
       </c>
       <c r="E35" s="43" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1746,7 +1750,7 @@
         <v>120</v>
       </c>
       <c r="E37" s="45" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1763,7 +1767,7 @@
         <v>36</v>
       </c>
       <c r="E38" s="46" t="n">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1780,7 +1784,7 @@
         <v>42</v>
       </c>
       <c r="E39" s="47" t="n">
-        <v>3.25</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1797,7 +1801,7 @@
         <v>22</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1.5</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1814,7 +1818,7 @@
         <v>3.5</v>
       </c>
       <c r="E41" s="49" t="n">
-        <v>20.1</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1831,7 +1835,7 @@
         <v>24</v>
       </c>
       <c r="E42" s="50" t="n">
-        <v>10.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1847,7 +1851,9 @@
       <c r="D43" s="2">
         <v>44</v>
       </c>
-      <c r="E43" s="51"/>
+      <c r="E43" s="51" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1">
@@ -1863,7 +1869,7 @@
         <v>45</v>
       </c>
       <c r="E44" s="52" t="n">
-        <v>2.0</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1880,7 +1886,7 @@
         <v>49</v>
       </c>
       <c r="E45" s="53" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1897,7 +1903,7 @@
         <v>13</v>
       </c>
       <c r="E46" s="54" t="n">
-        <v>11.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1913,7 +1919,9 @@
       <c r="D47" s="2">
         <v>20</v>
       </c>
-      <c r="E47" s="55"/>
+      <c r="E47" s="55" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1">
@@ -1929,7 +1937,7 @@
         <v>28</v>
       </c>
       <c r="E48" s="56" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -1946,7 +1954,7 @@
         <v>20</v>
       </c>
       <c r="E49" s="57" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -1962,9 +1970,7 @@
       <c r="D50" s="6">
         <v>34</v>
       </c>
-      <c r="E50" s="58" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="E50" s="58"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1">
@@ -1979,7 +1985,9 @@
       <c r="D51" s="2">
         <v>18</v>
       </c>
-      <c r="E51" s="59"/>
+      <c r="E51" s="59" t="n">
+        <v>6.25</v>
+      </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1">
@@ -1995,7 +2003,7 @@
         <v>19</v>
       </c>
       <c r="E52" s="60" t="n">
-        <v>3.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2012,7 +2020,7 @@
         <v>19</v>
       </c>
       <c r="E53" s="61" t="n">
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2028,7 +2036,9 @@
       <c r="D54" s="2">
         <v>22</v>
       </c>
-      <c r="E54" s="62"/>
+      <c r="E54" s="62" t="n">
+        <v>3.75</v>
+      </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1">
@@ -2058,7 +2068,9 @@
       <c r="D56" s="2">
         <v>52</v>
       </c>
-      <c r="E56" s="64"/>
+      <c r="E56" s="64" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1">
@@ -2105,7 +2117,9 @@
       <c r="D59" s="2">
         <v>210</v>
       </c>
-      <c r="E59" s="67"/>
+      <c r="E59" s="67" t="n">
+        <v>2.0</v>
+      </c>
       <c r="H59" s="1"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -2147,9 +2161,7 @@
       <c r="D61" s="2">
         <v>130</v>
       </c>
-      <c r="E61" s="69" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="E61" s="69"/>
       <c r="H61" s="3"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -2171,7 +2183,7 @@
         <v>24</v>
       </c>
       <c r="E62" s="70" t="n">
-        <v>1.5</v>
+        <v>7.0</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="2"/>
@@ -2217,7 +2229,7 @@
         <v>45</v>
       </c>
       <c r="E64" s="72" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="2"/>
@@ -2240,7 +2252,7 @@
         <v>40</v>
       </c>
       <c r="E65" s="73" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="2"/>
@@ -2263,7 +2275,7 @@
         <v>44</v>
       </c>
       <c r="E66" s="74" t="n">
-        <v>5.5</v>
+        <v>13.0</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="2"/>
@@ -2286,7 +2298,7 @@
         <v>65</v>
       </c>
       <c r="E67" s="75" t="n">
-        <v>1.0</v>
+        <v>3.5</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="2"/>
@@ -2309,7 +2321,7 @@
         <v>45</v>
       </c>
       <c r="E68" s="76" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="2"/>
@@ -2332,7 +2344,7 @@
         <v>135</v>
       </c>
       <c r="E69" s="77" t="n">
-        <v>1.5</v>
+        <v>5.0</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="2"/>
@@ -2376,7 +2388,7 @@
         <v>65</v>
       </c>
       <c r="E71" s="79" t="n">
-        <v>2.0</v>
+        <v>3.5</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="2"/>
@@ -2399,7 +2411,7 @@
         <v>20</v>
       </c>
       <c r="E72" s="80" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="2"/>
@@ -2464,7 +2476,7 @@
         <v>120</v>
       </c>
       <c r="E75" s="83" t="n">
-        <v>2.0</v>
+        <v>8.5</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="2"/>
@@ -2915,7 +2927,7 @@
         <v>20</v>
       </c>
       <c r="E98" s="106" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2946,7 +2958,9 @@
       <c r="D100" s="2">
         <v>35</v>
       </c>
-      <c r="E100" s="108"/>
+      <c r="E100" s="108" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1">
@@ -2962,7 +2976,7 @@
         <v>10</v>
       </c>
       <c r="E101" s="109" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3023,7 +3037,9 @@
       <c r="D105" s="2">
         <v>35</v>
       </c>
-      <c r="E105" s="113"/>
+      <c r="E105" s="113" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1">
@@ -3055,7 +3071,9 @@
       <c r="D107" s="6">
         <v>22</v>
       </c>
-      <c r="E107" s="115"/>
+      <c r="E107" s="115" t="n">
+        <v>30.0</v>
+      </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="1">
